--- a/excel-parser/Files/nightwork.xlsx
+++ b/excel-parser/Files/nightwork.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohammad/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhm\Documents\GitHub\Excel-Parser\excel-parser\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6531AE-2A25-9148-95BE-4545A6166504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="615" windowWidth="25605" windowHeight="14880"/>
   </bookViews>
   <sheets>
-    <sheet name="شبکاری" sheetId="1" r:id="rId1"/>
-    <sheet name="جمعه کاری" sheetId="2" r:id="rId2"/>
+    <sheet name="sheetn" sheetId="1" r:id="rId1"/>
+    <sheet name="sheeth" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -173,7 +172,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-3000000]h:mm"/>
   </numFmts>
@@ -469,9 +468,6 @@
     <xf numFmtId="46" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -491,6 +487,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -503,6 +538,15 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -510,51 +554,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -870,37 +869,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="15.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" customWidth="1"/>
     <col min="6" max="6" width="15" style="2" customWidth="1"/>
-    <col min="7" max="7" width="60.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="2"/>
+    <col min="7" max="7" width="60.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -923,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -948,24 +947,26 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="15">
         <f>F4</f>
         <v>8.2638888888888928E-2</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="34">
+        <v>8.2638888888888887E-2</v>
+      </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>2</v>
       </c>
@@ -990,8 +991,8 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1010,13 +1011,13 @@
         <f t="shared" si="0"/>
         <v>8.2638888888888928E-2</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="17" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+    <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1035,29 +1036,31 @@
         <f t="shared" si="0"/>
         <v>3.125E-2</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="17" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="15">
         <f>F6+F7+F8</f>
         <v>0.1347222222222223</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="34">
+        <v>0.13472222222222222</v>
+      </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>5</v>
       </c>
@@ -1082,8 +1085,8 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+    <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1102,13 +1105,13 @@
         <f t="shared" si="0"/>
         <v>4.7916666666666607E-2</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="20" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+    <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1127,106 +1130,108 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>15</v>
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="15">
         <f>F10+F11+F12</f>
         <v>0.17222222222222219</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="34">
+        <v>0.17222222222222225</v>
+      </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="8:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="H36" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="1.3385826771653544" header="0.31496062992125984" footer="0.89"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -1237,35 +1242,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:8" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1283,266 +1288,272 @@
       <c r="F2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="21">
         <v>0.43055555555555558</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>0.57361111111111118</v>
       </c>
       <c r="F3" s="13">
         <f>(E3-D3)</f>
         <v>0.1430555555555556</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="27">
         <v>0.4236111111111111</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="27">
         <v>0.56597222222222221</v>
       </c>
       <c r="F4" s="6">
         <f>(E4-D4)</f>
         <v>0.1423611111111111</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="28" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="27">
         <v>0.40069444444444446</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="27">
         <v>0.64444444444444449</v>
       </c>
       <c r="F5" s="6">
         <f>(E5-D5)</f>
         <v>0.24375000000000002</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="28" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="38" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="15">
         <f>F5+F4+F3</f>
         <v>0.52916666666666679</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="35">
+        <v>0.52916666666666667</v>
+      </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+    <row r="7" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30">
         <v>4</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="32">
         <v>0.37847222222222227</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="32">
         <v>0.72222222222222221</v>
       </c>
       <c r="F7" s="13">
         <f t="shared" ref="F7:F12" si="0">(E7-D7)</f>
         <v>0.34374999999999994</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
+    <row r="8" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
         <v>5</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="27">
         <v>0.37083333333333335</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="27">
         <v>0.67222222222222217</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>0.30138888888888882</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+    <row r="9" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
         <v>6</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="27">
         <v>0.37361111111111112</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="27">
         <v>0.67361111111111116</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+    <row r="10" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="15">
         <f>F9+F8+F7</f>
         <v>0.94513888888888875</v>
       </c>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="G10" s="35">
+        <v>0.94513888888888886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
         <v>7</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="32">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="32">
         <v>0.70138888888888884</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" si="0"/>
         <v>0.24305555555555552</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+    <row r="12" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
         <v>8</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="27">
         <v>0.375</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="27">
         <v>0.63402777777777775</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>0.25902777777777775</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="39"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
       <c r="F13" s="15">
         <f>F12+F11</f>
         <v>0.50208333333333321</v>
       </c>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F15" s="20"/>
+      <c r="G13" s="35">
+        <v>0.50208333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
